--- a/similarities/split_global/harmonic_similarity_timestamps_361.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_361.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,606 +484,634 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_50</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:03.660000', '0:00:09.640000')]</t>
+          <t>('0:01:32.040000', '0:01:44.400000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:06.760000', '0:00:12.960000')]</t>
+          <t>('0:00:40.080000', '0:00:45.580000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=3.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=92.04</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=6.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=40.08</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>jaah_83</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['D:7', 'G', 'Bb:dim7']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['F:7', 'Bb', 'Bb:dim7']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:16.560000', '0:00:37.820000')]</t>
+          <t>('0:00:05.230000', '0:00:12.210000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:42.150000', '0:01:07.840000')]</t>
+          <t>('0:00:12.990000', '0:00:14.370000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=16.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=5.23</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=42.15']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.99</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['D', 'G/5', 'D']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Bb', 'Eb']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
+          <t>('0:00:12.707687', '0:00:25.501882')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:00.761383', '0:01:11.001383')]</t>
+          <t>('0:01:03.600000', '0:01:06.040000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_259</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E']]</t>
+          <t>['C:min', 'G:maj', 'C:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E']]</t>
+          <t>['A#:min', 'F:maj/A', 'A#:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:00.420489', '0:00:03.744303')]</t>
+          <t>('0:00:07.523000', '0:00:10.397000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:47.187000', '0:00:57.707000')]</t>
+          <t>('0:00:12.600000', '0:00:17.860000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-30#t=0.420489']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=7.523</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=47.187']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=12.6</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:03.884104', '0:00:26.140430')]</t>
+          <t>('0:00:08.200000', '0:00:12.660000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
+          <t>('0:00:00.680000', '0:00:02.980000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=3.884104']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=8.2</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=0.68</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>schubert-winterreise_93</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>isophonics_258</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj', 'G:maj/5']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
+          <t>('0:00:34.180000', '0:00:36.980000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:15.260000', '0:00:45.460000')]</t>
+          <t>('0:00:31.138000', '0:00:34.969000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=30.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=34.18</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=15.26']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=31.138</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>isophonics_140</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>['C:maj', 'F/5', 'C:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:17.780000', '0:00:25.400000')]</t>
+          <t>('0:00:10.619000', '0:00:16.742000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:01.540000', '0:00:03.580000')]</t>
+          <t>('0:00:00.465952', '0:00:05.272756')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=17.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=0.465952</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:12.510000', '0:00:13.910000')]</t>
+          <t>('0:00:02.300000', '0:00:07.040000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:12.520000', '0:01:23.280000')]</t>
+          <t>('0:01:27.660000', '0:01:36.720000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=2.3</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=72.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=87.66</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:22.770000', '0:00:29.490000')]</t>
+          <t>('0:04:13.840000', '0:04:19.880000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:33.480000', '0:00:45.590000')]</t>
+          <t>('0:01:00.120000', '0:01:01.360000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=253.84</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7'], ['D:7', 'G:7', 'C']]</t>
+          <t>['D:7', 'G/5', 'G:min/5', 'D']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A'], ['E:7/G#', 'A:7/G', 'D:maj/F#']]</t>
+          <t>['Ab:7', 'Db/3', 'Db:min/b3', 'Ab/b5']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:12.851927', '0:00:16.810929'), ('0:00:18.783807', '0:00:24.845034')]</t>
+          <t>('0:01:23.505328', '0:01:33.397029')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:03:44.580000', '0:03:52.160000'), ('0:00:56.920000', '0:01:03.560000')]</t>
+          <t>('0:00:03.300000', '0:00:05.850000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=12.851927', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=18.783807']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=83.505328</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=224.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=56.92']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=3.3</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D', 'A/3']]</t>
+          <t>['C', 'C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:47.640000', '0:01:48.840000')]</t>
+          <t>('0:04:04.360000', '0:04:15.460000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:12.743000', '0:00:17.058000')]</t>
+          <t>('0:04:12.620000', '0:04:19.880000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=107.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=244.36</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=12.743']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=252.62</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:00.800000', '0:00:03.520000')]</t>
+          <t>('0:00:28.009637', '0:00:33.826235')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:46.880000', '0:00:58.120000')]</t>
+          <t>('0:01:45', '0:01:48.240000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=46.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>isophonics_180</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['B', 'F#', 'B']]</t>
+          <t>['F', 'C', 'F', 'Bb']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
+          <t>['D', 'A', 'D', 'G']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:24.838594', '0:00:43.252018')]</t>
+          <t>('0:00:00.440395', '0:00:07.265318')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:19.180000')]</t>
+          <t>('0:00:06.536000', '0:00:12.648000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=24.838594']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=0.440395</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=6.536</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1093,89 +1121,89 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj', 'A:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:11.384000', '0:00:18.837000')]</t>
+          <t>('0:00:11.384000', '0:00:18.837000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:55.680000', '0:01:06.100000')]</t>
+          <t>('0:00:59.220000', '0:01:11.120000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['E', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:18.060000', '0:00:20.600000')]</t>
+          <t>('0:01:14.400000', '0:01:26.060000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:33.480000', '0:00:45.590000')]</t>
+          <t>('0:01:01.683832', '0:01:05.956303')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=18.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
